--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\UrbanSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D40F684E-C1F0-49A5-96A4-CE3BEBD0553E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5C8273BA-7586-4773-96F6-9A23217EF2B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{9C42D02D-7EC8-44D6-850C-E494BA055878}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Screen</t>
   </si>
@@ -430,7 +430,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,6 +456,9 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -501,15 +504,24 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
